--- a/src/com/NFHS/xls/UserDashboard.xlsx
+++ b/src/com/NFHS/xls/UserDashboard.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>TCID</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -569,6 +572,9 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
